--- a/biology/Botanique/Thalia_(botanique)/Thalia_(botanique).xlsx
+++ b/biology/Botanique/Thalia_(botanique)/Thalia_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thalies sont des plantes du genre Thalia et de la famille des Marantacées originaires d'Amérique et d'Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thalies sont des plantes rhizomateuses, vivaces de milieux humides ou aquatiques.
 Les inflorescences terminales paniculées sont portées par une longue tige.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les thalies sont originaires d'Amérique tropicale, du Mexique à l'Argentine et d'Afrique tropicale, de la Sierra Leone au Congo.
 L'usage ornemental des deux principales espèces - Thalia dealbata et Thalia geniculata - les a répandues à l'ensemble du globe.
@@ -577,7 +593,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est tirée principalement de l'index The Plant List, avec des indications des index du jardin botanique du Missouri et de l'index IPNI (International Plant Names Index), à la date d'août 2012. Les espèces retenues dans le genre sont en caractères gras :
 Thalia altissima Klotzsch (1848) : voir Thalia geniculata var. glabrescens Körn.
@@ -587,7 +605,7 @@
 Thalia barbata Small (1903) : voir Thalia dealbata Fraser ex Roscoe
 Thalia bicolor (Ker Gawl.) K.Koch (1857) : voir Maranta bicolor Ker Gawl.
 Thalia brachystachys K.Koch (1857) : voir Sarcophrynium brachystachys K.Schum.
-Thalia caerulea Ridl. (1887) : voir Thalia geniculata L.[1]
+Thalia caerulea Ridl. (1887) : voir Thalia geniculata L.
 Thalia canniformis G.Forst. (1786) : voir Donax canniformis (G.Forst.) K.Schum.
 Thalia coarctata Herb. Vindobonensis ex Petersen (1890) : voir Myrosma cuyabensis (Körn.) K.Schum. - synonymes : Maranta cuyabensis Körn., Saranthe cuyabensis (Körn.) Eich.
 Thalia colorata Vell. (1829) : voir Maranta bicolor Ker Gawl.
@@ -603,7 +621,7 @@
 Thalia erecta Vell. (1829) : voir Thalia geniculata L.
 Thalia farinosa Brongn. (1859) : voir Ischnosiphon leucophaeus (Poepp. &amp; Endl.) Körn. - synonymes : Calathea leucophaea Poepp. &amp; Endl., Hymenocharis farinosa (Brongn.) Kuntze, Hymenocharis leucophaea (Poepp. &amp; Endl.) Kuntze
 Thalia geniculata L. (1753) - synonymes : Maranta flexuosa C.Presl, Maranta geniculata (L.) Lam., Renealmia erecta (Vell.) D.Dietr., Renealmia erecta (Vell.) D.Dietr., Renealmia geniculata (L.) D.Dietr., Thalia altissima Klotzsch, Thalia angustifolia C.Wright ex Griseb., Thalia caerulea Ridl., Thalia dipetala Gagnep., Thalia divaricata Chapm., Thalia erecta Vell., Thalia schumanniana De Wild., Thalia trichocalyx Gagnep.
-Thalia geniculata var. glabrescens Körn. (1862) - synonyme : Thalia altissima Klotzsch[2]
+Thalia geniculata var. glabrescens Körn. (1862) - synonyme : Thalia altissima Klotzsch
 Thalia geniculata var. pubescens Körn. (1862)
 Thalia geniculata f. rheumoides Shuey (1975)
 Thalia geniculata var. villosa Körn. ex K.Schum. (1902)
@@ -611,9 +629,9 @@
 Thalia hexantha Poepp. &amp; Endl. (1838) : voir Hylaeanthe hexantha (Poepp. &amp; Endl.) A.M.E.Jonker &amp; Jonker - synonymes : Maranta hexantha (Poepp. &amp; Endl.) D.Dietr., Myrosma hexantha (Poepp. &amp; Endl.) Schum.
 Thalia latifolia (Willd. ex Link) Link (1820) : voir  Calathea latifolia (Willd. ex Link) Klotzsch - synonymes : Alpinia latifolia Willd. ex Link, Calathea lanceolata Körn., Goeppertia latifolia (Willd. ex Link) Borchs. &amp; see Suárez Suarez, Luz Stella, Phyllodes platyphylla Kuntze
 Thalia leptostachya (Regel &amp; Körn.) K.Koch -(1857) : voir Saranthe leptostachya (Regel &amp; Körn.) Eichler - synonymes : Maranta leptostachya Regel &amp; Körn., Phrynium leptostachyum (Regel &amp; Körn.) K.Koch
-Thalia linkiana Steudn. (1857) : voir Saranthe composita (K.Koch) K.Schum. - synonymes :Maranta linkiana (Steudn.) Körn., Maranta mischanta Vell., Phrynium compositum (K.Koch) Link ex Körn.[3]
+Thalia linkiana Steudn. (1857) : voir Saranthe composita (K.Koch) K.Schum. - synonymes :Maranta linkiana (Steudn.) Körn., Maranta mischanta Vell., Phrynium compositum (K.Koch) Link ex Körn.
 Thalia luschnathiana K.Koch ex Horan. (1862) : voir Ctenanthe luschnathiana (Regel &amp; Körn.) Eichler - synonymes : Maranta luschnathiana Regel &amp; Körn., Phrynium luschnathiana (Regel &amp; Körn.) K.Koch
-Thalia lutea (Jacq.) Steudn. (1857) : voir Maranta jacquinii Roem. &amp; Schult. - synonymes : Maranta lutea Jacq.[4],Stromanthe lutea (Jacq.) Eichler
+Thalia lutea (Jacq.) Steudn. (1857) : voir Maranta jacquinii Roem. &amp; Schult. - synonymes : Maranta lutea Jacq.,Stromanthe lutea (Jacq.) Eichler
 Thalia marantifolia Vell. (1829) : voir Ctenanthe marantifolia (Vell.) J.M.A.Braga &amp; H.Gomes - synonymes : Ctenanthe pilosa (Schauer) Eichler, Renealmia marantifolia (Vell.) D.Dietr., Thalia steudneri K.Koch ex Körn.
 Thalia multiflora Horkel ex Körn. (1862) - synonymes : Calathea macrostachya Griseb., Phyllodes grisebachiana (Griseb.) Kuntze
 Thalia nemorosa Willd. ex Link (1820) : voir Heliconia psittacorum L.f.
@@ -630,7 +648,7 @@
 Thalia setosa (Roscoe) K.Koch (1857) : voir Ctenanthe setosa (Roscoe) Eichler - synonymes : Maranta secunda Graham, Maranta setosa (Roscoe) A.Dietr., Myrosma setosa (Roscoe) Benth., Phrynium hirsutum Körn., Phrynium setosum Roscoe, Phrynium thyrsiflorum Petersen, Stromanthe setosa (Roscoe) Gris
 Thalia spectabilis Lem. (1854) : voir Stromanthe thalia (Vell.) J.M.A.Braga - synonymes : Heliconia thalia Vell., Maranta sanguinea (Sond.) Planch., Maranta spectabilis (Lem.) Körn., Phrynium sanguineum (Sond.) Hook., Stromanthe sanguinea Sond., Stromanthe spectabilis Lem., Thalia sanguinea (Sond.) Lem.
 Thalia steudneri K.Koch ex Körn. (1862) : voir Ctenanthe marantifolia (Vell.) J.M.A.Braga &amp; H.Gomes - synonymes : Renealmia marantifolia (Vell.) D.Dietr.
-Thalia sylvestris Willd. ex Schult. (1822) - classement indéterminé[5]
+Thalia sylvestris Willd. ex Schult. (1822) - classement indéterminé
 Thalia trichocalyx Gagnep. (1904) : voir Thalia geniculata L.
 Thalia tuberosa Vell. (1829) : voir Calathea tuberosa (Vell.) Körn. - synonymes : Phrynium tuberosum (Vell.) K.Koch, Phyllodes tuberosa (Vell.) Kuntze, Renealmia tuberosa (Vell.) D.Dietr.
 Thalia unilateralis Poepp. &amp; Endl. (1838) : voir Hylaeanthe unilateralis (Poepp. &amp; Endl.) A.M.E.Jonker &amp; Jonker - synonymes : Maranta unilateralis (Poepp. &amp; Endl.) D.Dietr., Myrosma uleana Loes., Myrosma unilateralis (Poepp. &amp; Endl.) Benth. ex B.D.Jacks., Saranthe unilateralis (Poepp. &amp; Endl.) Eichler
@@ -662,17 +680,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Plumier décrit un genre Cortusa en 1703, en hommage à Jacobus Antonius Cortusus, botaniste de Padoue du XVIe siècle, avec une espèce Cortusa arundinacea, amplis cannacori foliis, espèce qui deviendra Thalia geniculata[6].
-En 1753, Carl von Linné reprend la description de Charles Plumier et renomme le genre Cortusa en Thalia en hommage à Johannes Thal, médecin et botaniste allemand du XVIe siècle, et l'espèce type en Thalia geniculata[7]. Il avait déjà attribué le nom de Cortusa à un autre genre de la famille des Primulacées.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Plumier décrit un genre Cortusa en 1703, en hommage à Jacobus Antonius Cortusus, botaniste de Padoue du XVIe siècle, avec une espèce Cortusa arundinacea, amplis cannacori foliis, espèce qui deviendra Thalia geniculata.
+En 1753, Carl von Linné reprend la description de Charles Plumier et renomme le genre Cortusa en Thalia en hommage à Johannes Thal, médecin et botaniste allemand du XVIe siècle, et l'espèce type en Thalia geniculata. Il avait déjà attribué le nom de Cortusa à un autre genre de la famille des Primulacées.
 En 1819, Constantine Samuel Rafinesque déplace plusieurs espèces dans des genres spécifiques qu'il crée - Malacaria, Spirothalis : ces genres sont considérés actuellement comme synonymes du genre Thalia.
 En 1902, Karl Moritz Schumann réalise une révision du genre. Il distingue quatre sous-genres :
 Euthalia avec Thalia dealbata Fraser ex Roscoe et Thalia multiflora Horkel ex Körn.
 Arthrothalia avec Thalia geniculata L.
 Sarothalia avec Thalia petersiana K.Schum. et Thalia densibracteata Petersen
 Anomothalia avec Thalia pavonii Körn.
-Cette révision est la plus complète du genre avant les études phylogénétiques[8].
+Cette révision est la plus complète du genre avant les études phylogénétiques.
 </t>
         </is>
       </c>
@@ -701,7 +721,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu de genres présentent à la fois une telle synonymie et une telle proportion d'espèces déplacées plusieurs fois (jusqu'à cinq fois).
 Les genres Malacaria Raf., Spirothalis Raf. sont totalement synonymes, le genre Phyllodes Lour. partiellement.
